--- a/1.2Account.xlsx
+++ b/1.2Account.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <x:si>
     <x:t>TestScenarioID</x:t>
   </x:si>
@@ -55,91 +55,154 @@
     <x:t>TestScenario_1.TestCase_1</x:t>
   </x:si>
   <x:si>
+    <x:t>View Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account Page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Account name to View the Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the Account Details</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_2.TestCase_1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Edit Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User is navigated to the Account Details page</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valid value for required field Account Name  @ Valid value for required field Account Name, value should be  Test for Workflow Process.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the  Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the Account Name field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Valid value for required field  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Input valid value in the   field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input value for the  field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on Save button to save Account with fields</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate that the Account is edited</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TestScenario_3.TestCase_1</x:t>
+  </x:si>
+  <x:si>
     <x:t>New Account</x:t>
   </x:si>
   <x:si>
-    <x:t>User Needs to Login to Salesforce, from the browser with correct credentials</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 1</x:t>
-  </x:si>
-  <x:si>
     <x:t>Click on the Account tab, and click on New button</x:t>
   </x:si>
   <x:si>
     <x:t>User should be navigated to the New  Account Page</x:t>
   </x:si>
   <x:si>
-    <x:t>Valid value for required field Account Name  @ Valid value for required field Account Name, value should be  Test for Workflow Process.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the  Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the Account Name field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Valid value for required field  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Input valid value in the   field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to input value for the  field.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Step 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Save button to save Account with fields</x:t>
-  </x:si>
-  <x:si>
     <x:t>User should be able to validate that a New Account is created</x:t>
   </x:si>
   <x:si>
-    <x:t>TestScenario_2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_2.TestCase_1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>View Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Click on the Account tab,  and select a Account </x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be navigated to the Account Page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on Account name to View the Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to view the Account Details</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TestScenario_3</x:t>
+    <x:t>TestScenario_4</x:t>
   </x:si>
   <x:si>
     <x:t>TestScenario_4.TestCase_1</x:t>
   </x:si>
   <x:si>
-    <x:t>Edit Account</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Click on the Account tab,  and click on existing Account to modify</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User is navigated to the Account Details page</x:t>
-  </x:si>
-  <x:si>
-    <x:t>User should be able to validate that the Account is edited</x:t>
+    <x:t>Reassign Approve/Reject Account</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on the Account tab</x:t>
+  </x:si>
+  <x:si>
+    <x:t>From the list of the  Accounts displayed, select the appropriate Account.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the Account details page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scroll down the Account page to locate the 'Approval History' section.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to view the pending Approve/Reject requests listed.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>To Reassign the record's request, Click on the 'Reassign' link.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be navigated to the 'Reassign Approval Request' Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Reassign Approval Request' section input the appropriate Approver in the 'Approver' field.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input the appropriate Approver.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>In the 'Reassign Approval Request' section, input Comments if required.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to input appropriate comments.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Click on 'Reassign Approval Request' button.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the changes are saved and they are navigated to the Account details Page.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Step 8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>User should be able to validate the name in the 'Assigned To' field matches the name that was updated in 'Step 5'.</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -223,8 +286,8 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K11" totalsRowShown="0">
-  <x:autoFilter ref="A1:K11"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:K19" totalsRowShown="0">
+  <x:autoFilter ref="A1:K19"/>
   <x:tableColumns count="11">
     <x:tableColumn id="1" name="TestScenarioID"/>
     <x:tableColumn id="2" name="TestCaseID"/>
@@ -530,7 +593,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:K11"/>
+  <x:dimension ref="A1:K19"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -538,12 +601,12 @@
   <x:cols>
     <x:col min="1" max="1" width="15.980625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="26.270625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="14.700625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="32.700624999999995" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="69.980624999999989" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="122.270625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="7.840625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="59.700625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="57.840625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="88.270625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="102.70062499999999" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="20.410625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="16.980625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="18.980625" style="0" customWidth="1"/>
@@ -616,32 +679,36 @@
       <x:c r="B3" s="0" t="s"/>
       <x:c r="C3" s="0" t="s"/>
       <x:c r="D3" s="0" t="s"/>
-      <x:c r="E3" s="0" t="s">
+      <x:c r="E3" s="0" t="s"/>
+      <x:c r="F3" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F3" s="0" t="s">
+      <x:c r="G3" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="G3" s="0" t="s">
+      <x:c r="H3" s="0" t="s">
         <x:v>20</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>21</x:v>
       </x:c>
       <x:c r="I3" s="0" t="s"/>
       <x:c r="J3" s="0" t="s"/>
       <x:c r="K3" s="0" t="s"/>
     </x:row>
     <x:row r="4" spans="1:11">
-      <x:c r="A4" s="0" t="s"/>
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="C4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s">
+      <x:c r="A4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E4" s="0" t="s"/>
       <x:c r="F4" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
         <x:v>24</x:v>
@@ -658,9 +725,11 @@
       <x:c r="B5" s="0" t="s"/>
       <x:c r="C5" s="0" t="s"/>
       <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
+      <x:c r="E5" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
         <x:v>27</x:v>
@@ -673,27 +742,21 @@
       <x:c r="K5" s="0" t="s"/>
     </x:row>
     <x:row r="6" spans="1:11">
-      <x:c r="A6" s="0" t="s">
+      <x:c r="A6" s="0" t="s"/>
+      <x:c r="B6" s="0" t="s"/>
+      <x:c r="C6" s="0" t="s"/>
+      <x:c r="D6" s="0" t="s"/>
+      <x:c r="E6" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="F6" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="G6" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E6" s="0" t="s"/>
-      <x:c r="F6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="G6" s="0" t="s">
+      <x:c r="H6" s="0" t="s">
         <x:v>32</x:v>
-      </x:c>
-      <x:c r="H6" s="0" t="s">
-        <x:v>33</x:v>
       </x:c>
       <x:c r="I6" s="0" t="s"/>
       <x:c r="J6" s="0" t="s"/>
@@ -706,7 +769,7 @@
       <x:c r="D7" s="0" t="s"/>
       <x:c r="E7" s="0" t="s"/>
       <x:c r="F7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
         <x:v>34</x:v>
@@ -751,16 +814,16 @@
       <x:c r="C9" s="0" t="s"/>
       <x:c r="D9" s="0" t="s"/>
       <x:c r="E9" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="F9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="H9" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="I9" s="0" t="s"/>
       <x:c r="J9" s="0" t="s"/>
@@ -772,16 +835,16 @@
       <x:c r="C10" s="0" t="s"/>
       <x:c r="D10" s="0" t="s"/>
       <x:c r="E10" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="H10" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="I10" s="0" t="s"/>
       <x:c r="J10" s="0" t="s"/>
@@ -794,10 +857,10 @@
       <x:c r="D11" s="0" t="s"/>
       <x:c r="E11" s="0" t="s"/>
       <x:c r="F11" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="H11" s="0" t="s">
         <x:v>41</x:v>
@@ -805,6 +868,166 @@
       <x:c r="I11" s="0" t="s"/>
       <x:c r="J11" s="0" t="s"/>
       <x:c r="K11" s="0" t="s"/>
+    </x:row>
+    <x:row r="12" spans="1:11">
+      <x:c r="A12" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B12" s="0" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C12" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s"/>
+      <x:c r="F12" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="G12" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s"/>
+      <x:c r="J12" s="0" t="s"/>
+      <x:c r="K12" s="0" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:11">
+      <x:c r="A13" s="0" t="s"/>
+      <x:c r="B13" s="0" t="s"/>
+      <x:c r="C13" s="0" t="s"/>
+      <x:c r="D13" s="0" t="s"/>
+      <x:c r="E13" s="0" t="s"/>
+      <x:c r="F13" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="G13" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H13" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I13" s="0" t="s"/>
+      <x:c r="J13" s="0" t="s"/>
+      <x:c r="K13" s="0" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:11">
+      <x:c r="A14" s="0" t="s"/>
+      <x:c r="B14" s="0" t="s"/>
+      <x:c r="C14" s="0" t="s"/>
+      <x:c r="D14" s="0" t="s"/>
+      <x:c r="E14" s="0" t="s"/>
+      <x:c r="F14" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="G14" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H14" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="I14" s="0" t="s"/>
+      <x:c r="J14" s="0" t="s"/>
+      <x:c r="K14" s="0" t="s"/>
+    </x:row>
+    <x:row r="15" spans="1:11">
+      <x:c r="A15" s="0" t="s"/>
+      <x:c r="B15" s="0" t="s"/>
+      <x:c r="C15" s="0" t="s"/>
+      <x:c r="D15" s="0" t="s"/>
+      <x:c r="E15" s="0" t="s"/>
+      <x:c r="F15" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="s"/>
+      <x:c r="J15" s="0" t="s"/>
+      <x:c r="K15" s="0" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:11">
+      <x:c r="A16" s="0" t="s"/>
+      <x:c r="B16" s="0" t="s"/>
+      <x:c r="C16" s="0" t="s"/>
+      <x:c r="D16" s="0" t="s"/>
+      <x:c r="E16" s="0" t="s"/>
+      <x:c r="F16" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="s"/>
+      <x:c r="J16" s="0" t="s"/>
+      <x:c r="K16" s="0" t="s"/>
+    </x:row>
+    <x:row r="17" spans="1:11">
+      <x:c r="A17" s="0" t="s"/>
+      <x:c r="B17" s="0" t="s"/>
+      <x:c r="C17" s="0" t="s"/>
+      <x:c r="D17" s="0" t="s"/>
+      <x:c r="E17" s="0" t="s"/>
+      <x:c r="F17" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="s"/>
+      <x:c r="J17" s="0" t="s"/>
+      <x:c r="K17" s="0" t="s"/>
+    </x:row>
+    <x:row r="18" spans="1:11">
+      <x:c r="A18" s="0" t="s"/>
+      <x:c r="B18" s="0" t="s"/>
+      <x:c r="C18" s="0" t="s"/>
+      <x:c r="D18" s="0" t="s"/>
+      <x:c r="E18" s="0" t="s"/>
+      <x:c r="F18" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="s"/>
+      <x:c r="J18" s="0" t="s"/>
+      <x:c r="K18" s="0" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:11">
+      <x:c r="A19" s="0" t="s"/>
+      <x:c r="B19" s="0" t="s"/>
+      <x:c r="C19" s="0" t="s"/>
+      <x:c r="D19" s="0" t="s"/>
+      <x:c r="E19" s="0" t="s"/>
+      <x:c r="F19" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="s"/>
+      <x:c r="J19" s="0" t="s"/>
+      <x:c r="K19" s="0" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
